--- a/Pomodoro App/quotes2.xlsx
+++ b/Pomodoro App/quotes2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A029410\Downloads\Projekty\Pomodoro_Application\Pomodoro App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0494B4-A556-44E4-B884-C2F09E188276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB801FD6-2C0F-4DEA-B2B3-6B877AE75E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Miłosz Brzeziński</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Większość naszego szczęścia w życiu to jednak inni ludzie.</t>
-  </si>
-  <si>
-    <t>Pracowita mróweczka osiągnie więcej niż spazmatyczny Hercules.</t>
+    <t>Pasja jest efektem ubocznym mistrzostwa.</t>
+  </si>
+  <si>
+    <t>Kreatywność lubi powolność</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proces jest ważniejszy od celu. 
+Dlatego nie załamuje się gdy w pojedyncze dni mi nie wyjdzie. </t>
+  </si>
+  <si>
+    <t>Uczenie się wszystkiego jest przereklamowane. 
+Należy się uczyć to co używasz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ułatwiaj sobie rzeczy, które chcesz robić 
+i utrudniaj rzeczy, których nie chcesz robić. </t>
+  </si>
+  <si>
+    <t>Są trzy największe przeszkody optymizmu: 
+1. Narzekanie 
+2. Szukanie winnych 
+3. Sarkazm</t>
+  </si>
+  <si>
+    <t>Satysfakcja w życiu jest z rzeczy, 
+które przychodzą z trudem 
+a ich wynik jest niepewny.</t>
+  </si>
+  <si>
+    <t>Jedynym pożądanym konfliktem w zespole
+jest to JAK coś zrobić. A nie CO albo KTO.</t>
+  </si>
+  <si>
+    <t>Proporcja głasków, komplementów,  
+dobrych słów do krytyki powinna wynosić 5:1 
+a w pracy minimum 3:1. Dlatego używaj słów
+my zamiast ja. Dotykaj, wspieraj mów kocham Cię, chwal etc.</t>
+  </si>
+  <si>
+    <t>Człowiek powinien pracować w blokach
+czasowych do 90 minut. 3-4 takie bloki z przerwami</t>
+  </si>
+  <si>
+    <t>Większość naszego szczęścia w życiu
+to jednak inni ludzie.</t>
+  </si>
+  <si>
+    <t>Pracowita mróweczka osiągnie więcej
+niż spazmatyczny Hercules.</t>
+  </si>
+  <si>
+    <t>Jeżeli zaplanujesz jakiś czas żeby go zmarnować
+to nie jest czas zmarnowany.</t>
   </si>
 </sst>
 </file>
@@ -72,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,77 +406,77 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="171.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,28 +487,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pomodoro App/quotes2.xlsx
+++ b/Pomodoro App/quotes2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A029410\Downloads\Projekty\Pomodoro_Application\Pomodoro App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB801FD6-2C0F-4DEA-B2B3-6B877AE75E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B389B-686B-4777-B4B2-7C98CF9D73CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,53 +36,40 @@
     <t>Kreatywność lubi powolność</t>
   </si>
   <si>
-    <t xml:space="preserve">Proces jest ważniejszy od celu. 
-Dlatego nie załamuje się gdy w pojedyncze dni mi nie wyjdzie. </t>
-  </si>
-  <si>
-    <t>Uczenie się wszystkiego jest przereklamowane. 
-Należy się uczyć to co używasz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ułatwiaj sobie rzeczy, które chcesz robić 
-i utrudniaj rzeczy, których nie chcesz robić. </t>
-  </si>
-  <si>
     <t>Są trzy największe przeszkody optymizmu: 
 1. Narzekanie 
 2. Szukanie winnych 
 3. Sarkazm</t>
   </si>
   <si>
-    <t>Satysfakcja w życiu jest z rzeczy, 
-które przychodzą z trudem 
-a ich wynik jest niepewny.</t>
-  </si>
-  <si>
-    <t>Jedynym pożądanym konfliktem w zespole
-jest to JAK coś zrobić. A nie CO albo KTO.</t>
-  </si>
-  <si>
-    <t>Proporcja głasków, komplementów,  
-dobrych słów do krytyki powinna wynosić 5:1 
-a w pracy minimum 3:1. Dlatego używaj słów
-my zamiast ja. Dotykaj, wspieraj mów kocham Cię, chwal etc.</t>
-  </si>
-  <si>
-    <t>Człowiek powinien pracować w blokach
-czasowych do 90 minut. 3-4 takie bloki z przerwami</t>
-  </si>
-  <si>
-    <t>Większość naszego szczęścia w życiu
-to jednak inni ludzie.</t>
-  </si>
-  <si>
-    <t>Pracowita mróweczka osiągnie więcej
-niż spazmatyczny Hercules.</t>
-  </si>
-  <si>
-    <t>Jeżeli zaplanujesz jakiś czas żeby go zmarnować
-to nie jest czas zmarnowany.</t>
+    <t>Pracowita mróweczka osiągnie więcej niż spazmatyczny Hercules.</t>
+  </si>
+  <si>
+    <t>Większość naszego szczęścia w życiu to jednak inni ludzie.</t>
+  </si>
+  <si>
+    <t>Uczenie się wszystkiego jest przereklamowane. Należy się uczyć to co używasz.</t>
+  </si>
+  <si>
+    <t>Człowiek powinien pracować w blokach czasowych do 90 minut. 3-4 takie bloki z przerwami</t>
+  </si>
+  <si>
+    <t>Proporcja głasków, komplementów,  dobrych słów do krytyki powinna wynosić 5:1 a w pracy minimum 3:1. Dlatego używaj słów my zamiast ja. Dotykaj, wspieraj mów kocham Cię, chwal etc.</t>
+  </si>
+  <si>
+    <t>Jedynym pożądanym konfliktem w zespole jest to JAK coś zrobić. A nie CO albo KTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ułatwiaj sobie rzeczy, które chcesz robić  i utrudniaj rzeczy, których nie chcesz robić. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proces jest ważniejszy od celu. Dlatego nie załamuje się gdy w pojedyncze dni mi nie wyjdzie. </t>
+  </si>
+  <si>
+    <t>Jeżeli zaplanujesz jakiś czas żeby go zmarnować to nie jest czas zmarnowany.</t>
+  </si>
+  <si>
+    <t>Satysfakcja w życiu jest z rzeczy, które przychodzą z trudem a ich wynik jest niepewny.</t>
   </si>
 </sst>
 </file>
@@ -406,7 +393,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,36 +402,36 @@
     <col min="2" max="2" width="171.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -452,31 +439,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,28 +474,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
